--- a/cypress/downloads/order-invoice_asad.jatri.xlsx
+++ b/cypress/downloads/order-invoice_asad.jatri.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6796221ce2b5443b1f3744ef</v>
+        <v>6796a391e2b5443b1f381a08</v>
       </c>
       <c r="B2" t="str">
         <v>qwerty</v>

--- a/cypress/downloads/order-invoice_asad.jatri.xlsx
+++ b/cypress/downloads/order-invoice_asad.jatri.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>6796a391e2b5443b1f381a08</v>
+        <v>6796a769e2b5443b1f381d92</v>
       </c>
       <c r="B2" t="str">
         <v>qwerty</v>
